--- a/medicine/Autisme/Journée_mondiale_de_la_sensibilisation_à_l'autisme/Journée_mondiale_de_la_sensibilisation_à_l'autisme.xlsx
+++ b/medicine/Autisme/Journée_mondiale_de_la_sensibilisation_à_l'autisme/Journée_mondiale_de_la_sensibilisation_à_l'autisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_la_sensibilisation_%C3%A0_l%27autisme</t>
+          <t>Journée_mondiale_de_la_sensibilisation_à_l'autisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Journée mondiale de l'autisme est une journée internationale organisée chaque année depuis le 18 décembre 2007. La 1re journée mondiale de l'autisme a été organisée le 2 avril 2008 sous l'égide de l'ONU.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_la_sensibilisation_%C3%A0_l%27autisme</t>
+          <t>Journée_mondiale_de_la_sensibilisation_à_l'autisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,74 +525,66 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Créations
-La Journée mondiale de la sensibilisation à l'autisme a été créée et désignée sous ce terme par la résolution de l'Assemblée générale des Nations unies. Elle a été proposée par le Qatar, puis soutenue par tous les États membres[1],[2].
+          <t>Créations</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La Journée mondiale de la sensibilisation à l'autisme a été créée et désignée sous ce terme par la résolution de l'Assemblée générale des Nations unies. Elle a été proposée par le Qatar, puis soutenue par tous les États membres,.
 La résolution avait quatre composantes principales :
 la mise en place de la journée fixée au 2 avril ;
 la participation des Organisations des Nations unies, les États membres, les ONG et toutes les organisations privées et publiques ;
 pouvoir sensibiliser l'autisme à tous les niveaux de la société ;
-de demander au Secrétaire général de l'ONU pour livrer ce message aux États membres et tous les autres organes de l'ONU.
-Thèmes annuels
-Thèmes 2008 à 2012 : Pas de thèmes connus
+de demander au Secrétaire général de l'ONU pour livrer ce message aux États membres et tous les autres organes de l'ONU.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Journée_mondiale_de_la_sensibilisation_à_l'autisme</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Journ%C3%A9e_mondiale_de_la_sensibilisation_%C3%A0_l%27autisme</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Thèmes annuels</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Thèmes 2008 à 2012 : Pas de thèmes connus
 Thème 2013 : « Célébrer la capacité dans le cadre de l'autisme »
 Thème 2014 : « Ouvrir les portes à l'éducation inclusive »
 Thème 2015 : « Emploi : l'avantage de l'autisme »
-Thème 2016 : « Autisme et Agenda 2030 : inclusion et neurodiversité »[3].
+Thème 2016 : « Autisme et Agenda 2030 : inclusion et neurodiversité ».
 Thème 2017 : « Vers l'autonomie et l'autodétermination »
 Thème 2018 : « Autonomisation des femmes et des filles avec autisme »
 Thème 2019 : « Technologies de soutien, participation active »
 Thème 2020 : « Le passage à l'âge adulte »
-Thème 2021 : « L'inclusion sur le lieu de travail : les défis et les perspectives d'un monde post-pandémie »[4].
-Thème 2022 : « Une éducation inclusive de qualité pour tous »[5].
-Thème 2023 : « Changer les perceptions : les contributions des personnes autistes dans les espaces personnels, professionnels, artistiques et politiques »[6].
-Thème 2024 : «De la survie à l'épanouissement personnel: les personnes autistes partagent des perspectives régionales»[7]
-Choix de la couleur bleue
-Selon les créateurs, la couleur bleue a été choisie pour sa « connotation douce et apaisante » et elle est liée à une opération de sensibilisation menée par l’association américaine Autism Speaks (opération « Light it up blue »). Cette association est cependant très critiquée[8]. Depuis 2018, le bleu est utilisé comme symbole de la journée mondiale de sensibilisation à l’autisme et elle notamment recommandée par l'association Autisme France[9],[10]. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Journ%C3%A9e_mondiale_de_la_sensibilisation_%C3%A0_l%27autisme</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Journ%C3%A9e_mondiale_de_la_sensibilisation_%C3%A0_l%27autisme</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Célébrations et animations</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Brésil
-Depuis 2011, la statue du Christ Rédempteur, située à Rio de Janeiro au Bérsil s'illumine chaque année en bleu pour le jour correspondant à la Journée mondiale de la sensibilisation à l'autisme.
-Au Cameroun
-La célébration de la 7ème Journée Mondiale de Sensibilisation à l'Autisme est officiellement organisé au Palais des Congrès de Yaoundé, en présence du Professeur Jacques Fame Ndongo, ministre de l'Enseignement Supérieur du Cameroun, représentant Personnel de Madame Chantal Biya, Première Dame du pays[11].
-Au Canada
-Les municipalités partout en Ontario soulèvent un drapeau pour sensibiliser la population à l'autisme dans leur région[12].
-Aux États-Unis
-Un épisode de la série animée pour enfants Fancy Nancy Clancy intitulé Le nouvel ami de Nancy (Nancy’s New Friend) est diffusé pour la première fois le jeudi 2 avril 2020 sur Disney Junior aux Etats-Unis. Cet épisode créé et produit par Krista Tucker évoque la vie d'un enfant autiste le jour même de la Journée mondiale de sensibilisation à l’autisme[13].
-En France
-Le 2 avril 2018, à l'occasion de la 12e journée mondiale de la sensibilisation à l'autisme, la façade de la Bordeaux Métropole Arkéa Arena est illuminée en bleu[14].
-À l'occasion de la 15e journée mondiale de la sensibilisation à l'autisme en 2021, la France décide également de célébrer le 3e anniversaire de la stratégie nationale 2018 - 2022 pour l’autisme au sein des troubles du neuro-développement. Selon un communiqué du gouvernement, les citoyens sont invités à porter du bleu, en gage de soutien à la cause[15].
-Au Maroc
-La wilaya de la région Casablanca-Settat a célébré, le 2 avril 2016, la journée mondiale de sensibilisation à l'autisme pour la 2e fois, en partenariat avec le réseau « American Moroccan competencies Network » (AMCN), l’association américaine Autism Speaks et les associations locales œuvrant dans ce domaine[16].
-L’association marocaine « Miroir » qui œuvre pour la prise en charge de enfants autistes de Fès a organisé les 1er et 2 avril 2022 dans la ville, une série d’activités et de campagnes de sensibilisation liée à la célébration de la journée mondiale de sensibilisation à l’autisme. Ces activités ont été organisées sous le signe « L’Ami de l’autiste »[17].
-</t>
+Thème 2021 : « L'inclusion sur le lieu de travail : les défis et les perspectives d'un monde post-pandémie ».
+Thème 2022 : « Une éducation inclusive de qualité pour tous ».
+Thème 2023 : « Changer les perceptions : les contributions des personnes autistes dans les espaces personnels, professionnels, artistiques et politiques ».
+Thème 2024 : «De la survie à l'épanouissement personnel: les personnes autistes partagent des perspectives régionales»</t>
         </is>
       </c>
     </row>
@@ -590,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_la_sensibilisation_%C3%A0_l%27autisme</t>
+          <t>Journée_mondiale_de_la_sensibilisation_à_l'autisme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,12 +609,275 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Choix de la couleur bleue</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les créateurs, la couleur bleue a été choisie pour sa « connotation douce et apaisante » et elle est liée à une opération de sensibilisation menée par l’association américaine Autism Speaks (opération « Light it up blue »). Cette association est cependant très critiquée. Depuis 2018, le bleu est utilisé comme symbole de la journée mondiale de sensibilisation à l’autisme et elle notamment recommandée par l'association Autisme France,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Journée_mondiale_de_la_sensibilisation_à_l'autisme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Journ%C3%A9e_mondiale_de_la_sensibilisation_%C3%A0_l%27autisme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Célébrations et animations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Au Brésil</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2011, la statue du Christ Rédempteur, située à Rio de Janeiro au Bérsil s'illumine chaque année en bleu pour le jour correspondant à la Journée mondiale de la sensibilisation à l'autisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Journée_mondiale_de_la_sensibilisation_à_l'autisme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Journ%C3%A9e_mondiale_de_la_sensibilisation_%C3%A0_l%27autisme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Célébrations et animations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Au Cameroun</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La célébration de la 7ème Journée Mondiale de Sensibilisation à l'Autisme est officiellement organisé au Palais des Congrès de Yaoundé, en présence du Professeur Jacques Fame Ndongo, ministre de l'Enseignement Supérieur du Cameroun, représentant Personnel de Madame Chantal Biya, Première Dame du pays.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Journée_mondiale_de_la_sensibilisation_à_l'autisme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Journ%C3%A9e_mondiale_de_la_sensibilisation_%C3%A0_l%27autisme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Célébrations et animations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Au Canada</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les municipalités partout en Ontario soulèvent un drapeau pour sensibiliser la population à l'autisme dans leur région.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Journée_mondiale_de_la_sensibilisation_à_l'autisme</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Journ%C3%A9e_mondiale_de_la_sensibilisation_%C3%A0_l%27autisme</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Célébrations et animations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Aux États-Unis</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un épisode de la série animée pour enfants Fancy Nancy Clancy intitulé Le nouvel ami de Nancy (Nancy’s New Friend) est diffusé pour la première fois le jeudi 2 avril 2020 sur Disney Junior aux Etats-Unis. Cet épisode créé et produit par Krista Tucker évoque la vie d'un enfant autiste le jour même de la Journée mondiale de sensibilisation à l’autisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Journée_mondiale_de_la_sensibilisation_à_l'autisme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Journ%C3%A9e_mondiale_de_la_sensibilisation_%C3%A0_l%27autisme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Célébrations et animations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 2 avril 2018, à l'occasion de la 12e journée mondiale de la sensibilisation à l'autisme, la façade de la Bordeaux Métropole Arkéa Arena est illuminée en bleu.
+À l'occasion de la 15e journée mondiale de la sensibilisation à l'autisme en 2021, la France décide également de célébrer le 3e anniversaire de la stratégie nationale 2018 - 2022 pour l’autisme au sein des troubles du neuro-développement. Selon un communiqué du gouvernement, les citoyens sont invités à porter du bleu, en gage de soutien à la cause.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Journée_mondiale_de_la_sensibilisation_à_l'autisme</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Journ%C3%A9e_mondiale_de_la_sensibilisation_%C3%A0_l%27autisme</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Célébrations et animations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Au Maroc</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La wilaya de la région Casablanca-Settat a célébré, le 2 avril 2016, la journée mondiale de sensibilisation à l'autisme pour la 2e fois, en partenariat avec le réseau « American Moroccan competencies Network » (AMCN), l’association américaine Autism Speaks et les associations locales œuvrant dans ce domaine.
+L’association marocaine « Miroir » qui œuvre pour la prise en charge de enfants autistes de Fès a organisé les 1er et 2 avril 2022 dans la ville, une série d’activités et de campagnes de sensibilisation liée à la célébration de la journée mondiale de sensibilisation à l’autisme. Ces activités ont été organisées sous le signe « L’Ami de l’autiste ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Journée_mondiale_de_la_sensibilisation_à_l'autisme</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Journ%C3%A9e_mondiale_de_la_sensibilisation_%C3%A0_l%27autisme</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le réseau CLE autiste, dont le siège est installé à Paris qui déplore plutôt une stigmatisation des personnes autistes en traduisant sur son site le texte en anglaise du blog d'une personne autiste américaine en 2019. Ce texte indique principalement que « La parole des personnes autistes sera déléguée aux parents et professionnels qui diffuseront encore plus de la désinformation et créeront d’autres préjugés [validistes] contre les personnes autistes. ». Ce réseau rejette également le choix de la couleur bleue, liée à l'association américaine Autism Speaks[18], fortement critiquée pour ses positions concernant les vaccins[8].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le réseau CLE autiste, dont le siège est installé à Paris qui déplore plutôt une stigmatisation des personnes autistes en traduisant sur son site le texte en anglaise du blog d'une personne autiste américaine en 2019. Ce texte indique principalement que « La parole des personnes autistes sera déléguée aux parents et professionnels qui diffuseront encore plus de la désinformation et créeront d’autres préjugés [validistes] contre les personnes autistes. ». Ce réseau rejette également le choix de la couleur bleue, liée à l'association américaine Autism Speaks, fortement critiquée pour ses positions concernant les vaccins.
 </t>
         </is>
       </c>
